--- a/biology/Botanique/Forêt_secondaire/Forêt_secondaire.xlsx
+++ b/biology/Botanique/Forêt_secondaire/Forêt_secondaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_secondaire</t>
+          <t>Forêt_secondaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt secondaire, par opposition à la forêt primaire, est une forêt (biomasse ligneuse) qui a repoussé, en une ou plusieurs phases après avoir été détruite (par exemple par l'agriculture sur brûlis) ou exploitée par l'homme par des coupes rases ou avec des impacts plus discrets mais significatifs pour les essences ou la structure forestières. Selon l'objectif de production sylvicole, ces forêts sont établies par deux types de régénération provoquée, la régénération naturelle (forêts naturellement régénérées) et la régénération artificielle (forêts plantées).
 Les sylviculteurs parlent de forêts aménagées, c'est-à-dire en optimisant la production de bois ou de produits commercialement et/ou techniquement plus intéressants pour le système économique en place au moment de l'aménagement.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_secondaire</t>
+          <t>Forêt_secondaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,54 +525,162 @@
           <t>Concept et définitions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la définition de l’Organisation des Nations unies pour l'alimentation et l'agriculture (Food and Agricultural Organization, FAO), une forêt est un milieu où le
 feuillage des arbres couvre au moins 10 % de la superficie (en excluant les terres agricoles ou les surfaces urbanisées). Ainsi, la forêt couvre environ 30 % de la planète.
 De manière courante, deux grands types de forêts sont distinguées : la forêt primaire (env. 36 % de la surface forestière mondiale) et la forêt secondaire, l'une se référant à une végétation naturelle et abritant l’essentiel de la biodiversité terrestre, sans intervention humaine qui aurait laissé des séquelles importantes ou observables, l'autre fortement ou entièrement façonnée par l’homme. Elle a repoussé après avoir été détruite ou exploitée.
-Définitions
-Définir la forêt représente toujours une difficulté, lorsqu'il s'agit de la définition de celle-ci dans ses relations avec l'homme. La FAO définissait et quantifiait[4] cinq types en 2005[5]:
-les forêts primaires sont composées d'espèces indigènes, sans trace visible d'activité humaine, qui n'ont jamais été modifiées par l'homme (avec cependant la présence de petits groupes humains qui vivent de ces forêts pour la chasse et la cueillette). En 2005, les forêts primaires représentent 36,4 % des 3 952 millions d'hectares[6] de surfaces forestières mondiales[7] ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Forêt_secondaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_secondaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Concept et définitions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Définitions</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Définir la forêt représente toujours une difficulté, lorsqu'il s'agit de la définition de celle-ci dans ses relations avec l'homme. La FAO définissait et quantifiait cinq types en 2005:
+les forêts primaires sont composées d'espèces indigènes, sans trace visible d'activité humaine, qui n'ont jamais été modifiées par l'homme (avec cependant la présence de petits groupes humains qui vivent de ces forêts pour la chasse et la cueillette). En 2005, les forêts primaires représentent 36,4 % des 3 952 millions d'hectares de surfaces forestières mondiales ;
 les forêts naturelles modifiées sont composées d'espèces indigènes, avec des traces d'activité humaine et une régénération naturelle. Les forêts naturelles modifiées représentent, en 2005, 52,7 % des forêts mondiales ;
 les forêts semi-naturelles sont des forêts comprenant des espèces indigènes, établies par plantation, semis ou régénération naturelle assistée. Elles représentent, en 2005, 7,1 % des surfaces forestières mondiales ;
 les plantations de production portent des espèces introduites (ou indigènes) par semis ou plantations pour la production de bois ou de produits non ligneux. Elles représentent, en 2005, 3,0 % des surfaces forestières mondiales ;
-les plantation de protection présentent des espèces introduites ou indigènes par semis ou plantations pour la protection des sols, des eaux, la conservation de la biodiversité (voir anciennes RTM). Les plantations de protection représentent, en 2005, 0,8 % des surfaces forestières mondiales.
-Naturalité
-Mieux que la différence entre primaire et secondaire qui tient en grande partie à la qualité des observations géohistoriques et paléobotaniques, il est possible de se référer au concept de naturalité. Alors, il n'y a plus véritablement opposition entre deux grandes catégories de forêts-naturelles ou anthropisées - mais un gradient qui évoque les héritages naturels et anthropiques des milieux forestiers sur des temps pluriséculaires ou millénaires. 
+les plantation de protection présentent des espèces introduites ou indigènes par semis ou plantations pour la protection des sols, des eaux, la conservation de la biodiversité (voir anciennes RTM). Les plantations de protection représentent, en 2005, 0,8 % des surfaces forestières mondiales.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Forêt_secondaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_secondaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Concept et définitions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Naturalité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mieux que la différence entre primaire et secondaire qui tient en grande partie à la qualité des observations géohistoriques et paléobotaniques, il est possible de se référer au concept de naturalité. Alors, il n'y a plus véritablement opposition entre deux grandes catégories de forêts-naturelles ou anthropisées - mais un gradient qui évoque les héritages naturels et anthropiques des milieux forestiers sur des temps pluriséculaires ou millénaires. 
 L'archéologie ne cesse de le démontrer, les hommes ont toujours vécu dans les forêts y compris dans celles considérées comme hautement et anciennement naturelles.
-Reboisements
-Les plantations forestières ou forêts de plantation sont des peuplements forestiers créés par plantation ou ensemencement pendant le boisement ou le reboisement, en un peuplement d'espèces introduites (plantés) ou peuplement d'espèces indigènes géré intensivement (une ou deux essences, classe équienne, espacement régulier, voire clones)[8]. La composition et la classe d’âge des forêts sont déterminées par les cycles de perturbation et de régénération. Elles différents selon les régions et les pratiques sylvicoles (révolutions).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forêt_secondaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_secondaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Concept et définitions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reboisements</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantations forestières ou forêts de plantation sont des peuplements forestiers créés par plantation ou ensemencement pendant le boisement ou le reboisement, en un peuplement d'espèces introduites (plantés) ou peuplement d'espèces indigènes géré intensivement (une ou deux essences, classe équienne, espacement régulier, voire clones). La composition et la classe d’âge des forêts sont déterminées par les cycles de perturbation et de régénération. Elles différents selon les régions et les pratiques sylvicoles (révolutions).
 Le reboisement - Le renouvellement (régénération) de la forêt se fait la plupart du temps de façon naturelle. Après la récolte du bois, les jeunes pousses se développent. Il arrive qu'il soit nécessaire de reboiser pour accélérer le cycle écologique par exemple ou pallier des perturbations (épidémies de nuisibles, maladies, feux, pollution). Le reboisement consiste à favoriser les bonnes essences, adaptées aux conditions édaphologiques.
 Le choix des semences - Les semences (cônes et fruits) sont cueillis sur des sites spécifiques (verger à graines au Canada) ou récoltés sur les grands arbres sélectionnés pour leurs qualités génétiques (semenciers) en forêt naturelle ou aménagée. Les semences sont adaptées au territoire écologique de reboisement.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_secondaire</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_secondaire</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forêt_secondaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_secondaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Les caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts secondaires sont logiquement caractérisées par des essences dites secondaires et, lorsqu'elles sont jeunes, en général, par un plus grand pourcentage d'espèces pionnières.
 Durant une longue période, elle sera différente de la forêt primaire, avec notamment :
@@ -580,65 +700,69 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_secondaire</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_secondaire</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forêt_secondaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_secondaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Évolution des forêts secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Si tant est que toutes les régions du monde s'accordent sur leur définition, ces forêts ont considérablement évolué au cours de l'histoire au gré des besoins et des pratiques sylvicoles, de l'introduction de nouvelles essences et, plus récemment des préoccupations environnementales et du regard sur les services écosystémiques rendus.
-La superficie de la forêt secondaire a fortement augmenté au Moyen Âge en Europe (taillis-sous-futaies), aux XVIIIe et XIXe siècles en Amérique du Nord, puis à la fin du XXe en zone tropicale humide[9] (en raison de l'exploitation croissante de la forêt primaire. Gómez-Pompa et Vasquez-Yanes (1974)[10] ont défini leur époque comme "l'ère des forêts secondaires" dans la car, hormis dans quelques cas exceptionnels, dans la plupart des pays tropicaux, les statistiques ont montré que la superficie de la forêt secondaire avait dépassé ou tendait à dépasser[11] celle de la forêt primaire[12]. 
-En zone tropicale, la FAO estimait (en 1981) qu'à la fin des années soixante-dix, environ 21 millions d'hectares de terres agricoles désaffectées au Mexique, en Amérique Centrale et dans les Caraïbes étaient en cours de recolonisation par la forêt, évoluant vers une forêt secondaire. En Amérique du Sud, c'étaient 78 autres millions d'hectares de forêts secondaires d'origine comparable qui étaient recensés par la FAO qui estimait qu'en 1985, ces chiffres atteindraient en Amérique Centrale et dans les Caraïbes, d'une part, et en Amérique du Sud, d'autre part, respectivement 23 millions et 83 millions d'hectares[13].
+La superficie de la forêt secondaire a fortement augmenté au Moyen Âge en Europe (taillis-sous-futaies), aux XVIIIe et XIXe siècles en Amérique du Nord, puis à la fin du XXe en zone tropicale humide (en raison de l'exploitation croissante de la forêt primaire. Gómez-Pompa et Vasquez-Yanes (1974) ont défini leur époque comme "l'ère des forêts secondaires" dans la car, hormis dans quelques cas exceptionnels, dans la plupart des pays tropicaux, les statistiques ont montré que la superficie de la forêt secondaire avait dépassé ou tendait à dépasser celle de la forêt primaire. 
+En zone tropicale, la FAO estimait (en 1981) qu'à la fin des années soixante-dix, environ 21 millions d'hectares de terres agricoles désaffectées au Mexique, en Amérique Centrale et dans les Caraïbes étaient en cours de recolonisation par la forêt, évoluant vers une forêt secondaire. En Amérique du Sud, c'étaient 78 autres millions d'hectares de forêts secondaires d'origine comparable qui étaient recensés par la FAO qui estimait qu'en 1985, ces chiffres atteindraient en Amérique Centrale et dans les Caraïbes, d'une part, et en Amérique du Sud, d'autre part, respectivement 23 millions et 83 millions d'hectares.
 En 2005, la forêt secondaire plantée ne représentaient selon la FAO que 7 % de la surface boisée mondiale mais produisait les deux tiers du bois dans le monde et une étude prospective de la FAO, tablait pour 2030, sur une production de 30 % de cette surface pour atteindre 50 % de tout le bois produits (ce qui signifierait accepter d'autres déboisements en zone primaire).
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_secondaire</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_secondaire</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forêt_secondaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_secondaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Les modes de gestion</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La productivité commerciale et éventuellement un intérêt pour la chasse "sportive" et le tourisme dans cette région ont souvent été les premières motivations des aménageurs. 
 À la fin des années 1900, un courant "écologiste" et certaines écoles de sylviculture ou dynamiques de certification ont cherché à concilier par une gestion restauratoire et soutenable des objectifs économiques, sociaux (incluant fonctions aménitaires et intérêt pour la santé) et environnementaux, dont l'efficacité et les résultats sont souvent discutés.
@@ -649,71 +773,143 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_secondaire</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_secondaire</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forêt_secondaire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_secondaire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Les interactions entre nouvelles forêts et forêts naturelles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dégradation d’espaces forestiers et l’abandon de parcelles agricoles engagent des processus naturels d’émergence de nouvelles forêts. La composition de ces nouveaux écosystèmes diffère des forêts d’origine -primaires ou secondaires - et s’avère parfois mieux adaptée aux perturbations anthropiques comme les modifications climatiques. Elles représentent quelque  850 millions d’hectares en région intertropicale. Elles garantissent également des services écosystémiques (épuration de l'eau, fourniture de produits forestiers végétaux et animaux, protection des sols, stockage de carbone, etc.)[14].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dégradation d’espaces forestiers et l’abandon de parcelles agricoles engagent des processus naturels d’émergence de nouvelles forêts. La composition de ces nouveaux écosystèmes diffère des forêts d’origine -primaires ou secondaires - et s’avère parfois mieux adaptée aux perturbations anthropiques comme les modifications climatiques. Elles représentent quelque  850 millions d’hectares en région intertropicale. Elles garantissent également des services écosystémiques (épuration de l'eau, fourniture de produits forestiers végétaux et animaux, protection des sols, stockage de carbone, etc.).
 Une bonne partie des nouvelles forêts est issue d’un réassemblage naturel entre espèces indigènes et exotiques. Dans des situations favorables, les plantations anciennes peuvent être colonisées par des plantes indigènes et des espèces animales, comme cela est le cas des forêts tempérées aménagées depuis des siècles.
-Dans les territoires de l'océan Indien
-Dans les îles de l’océan Indien par exemple, les écosystèmes cherchent un équilibre entre invasives et indigènes. L'envahissement d'Acacias australiens peut naturellement s’enrichir de plantes indigènes si des reliques de forêts naturelles sont encore présentes. À La Réunion et Madagascar, des formes d’interactions écologiques positives (mutualisme) entre espèces exotiques et indigènes ont été mises en évidence. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Forêt_secondaire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_secondaire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les interactions entre nouvelles forêts et forêts naturelles</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dans les territoires de l'océan Indien</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les îles de l’océan Indien par exemple, les écosystèmes cherchent un équilibre entre invasives et indigènes. L'envahissement d'Acacias australiens peut naturellement s’enrichir de plantes indigènes si des reliques de forêts naturelles sont encore présentes. À La Réunion et Madagascar, des formes d’interactions écologiques positives (mutualisme) entre espèces exotiques et indigènes ont été mises en évidence. 
 À Mayotte, certaines espèces introduites, comme le manguier ou l’avocat marron, font parfois partie intégrante de la structure de forêts considérées comme naturelles.
 La présence de nouvelles forêts, à Madagascar notamment, peut permettre de diminuer la pression sur les milieux naturels, pour la collecte de bois de feu et du charbonnage.
-Dans les territoires pacifiques
-En Europe
-Au Canada
-Les forêts canadiennes couvrent 15 écozones et occupent 397,3 millions d’hectares (30 % des forêts boréales mondiales). Les "autres terres boisées" occupent 12,5 % de cette superficie (milieux humides boisés et forêts-parcs). L’exploitation forestière ne touche qu’une petite portion chaque année des forêts (récolte de 0,5 %)[15].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_secondaire</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_secondaire</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Forêt_secondaire</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_secondaire</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Les interactions entre nouvelles forêts et forêts naturelles</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Au Canada</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts canadiennes couvrent 15 écozones et occupent 397,3 millions d’hectares (30 % des forêts boréales mondiales). Les "autres terres boisées" occupent 12,5 % de cette superficie (milieux humides boisés et forêts-parcs). L’exploitation forestière ne touche qu’une petite portion chaque année des forêts (récolte de 0,5 %).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Forêt_secondaire</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_secondaire</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Fonction et vulnérabilité des forêts secondaires</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Les facteurs climatiques, pédologiques et géomorphologiques influent sur la vulnérabilité des milieux à vocation forestière. Cependant, les facteurs anthropiques jouent souvent un rôle décisif en accélérant les processus de dégradation par des cultures itinérantes à trop courtes périodes de jachère, l'extension des surfaces cultivées sur fortes pentes, l'importance des coupes de bois de feu et commerciales, la progression des cultures de subsistance sur sols forestiers peu fertiles, le surpâturage et l'exploitation minière (orpaillage par exemple).
 En zone tempérée et pour partie en zone tropicale ou nordique, ces forêts rendent de nombreux services écosystémiques comme : 
@@ -722,8 +918,8 @@
 contribuant à la lutte contre la désertification et perte de sols (érosion, salinisation et alcalinisation), et donc indirectement et en aval, à une moindre augmentation des zones mortes et de la turbidité et pollution des cours d'eau et la destruction d'écosystèmes associés comme les mangroves et les récifs ;
 rôles sociaux (aménités paysagères et urbaines, intérêt touristique et de qualité de vie en milieu rural, avec cependant aussi un risque accru de zoonoses et maladies émergentes) ;
 moyen d'atténuer la pression exercée sur les forêts plus naturelles et/ou dites primaires,
-moyen de diminuer les pertes nettes de superficies boisées, alors que la déforestation de 13 millions d’hectares par an se poursuivait en 2008 selon la FAO (2009)[16].
-Certains auteurs espèrent qu'une rationalisation de la gestion forestière permettrait à l'humanité de bénéficier d'une ressource durable en bois et produits autres que le bois[17] (gibier, médicaments, etc), sans avoir recours à de nouvelles destructions de forêt primaire (Brown et Lugo, 1990). Le constat est néanmoins que les forêts primaires et anciennes continuent à reculer dans une grande partie du monde.
+moyen de diminuer les pertes nettes de superficies boisées, alors que la déforestation de 13 millions d’hectares par an se poursuivait en 2008 selon la FAO (2009).
+Certains auteurs espèrent qu'une rationalisation de la gestion forestière permettrait à l'humanité de bénéficier d'une ressource durable en bois et produits autres que le bois (gibier, médicaments, etc), sans avoir recours à de nouvelles destructions de forêt primaire (Brown et Lugo, 1990). Le constat est néanmoins que les forêts primaires et anciennes continuent à reculer dans une grande partie du monde.
 </t>
         </is>
       </c>
